--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2392843.527961904</v>
+        <v>2497023.162412975</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>155.6102299106072</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>260.8540656789781</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>25.32094367426415</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>29.37479515190226</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>92.72329049755683</v>
+        <v>114.4233678789972</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>124.5062027221401</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>178.6360887577652</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>246.162037583577</v>
       </c>
       <c r="W8" t="n">
-        <v>177.7249395130207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>110.5792314352437</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.8203072194694</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.9877674501602</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1579,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>112.2919725119092</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1771,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>103.5531674807558</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.1222404669086</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>28.54004930889236</v>
       </c>
       <c r="T19" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>13.53601007884915</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>134.4555615353791</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>142.3575218158278</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>13.72582864853771</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2764,22 +2766,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>240.8253188524996</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.0099009525715</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695584</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>120.7871326503977</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>44.30292280757602</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.408064079031787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>140.7215037338438</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>267.9044126109107</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>75.00788511618086</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,19 +3717,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>71.76895293959859</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784698</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>61.66004604094911</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>188.583641736433</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>70.40964990483397</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>213.7394996880296</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1758.295537883725</v>
+        <v>1548.766690866869</v>
       </c>
       <c r="C2" t="n">
-        <v>1389.333020943313</v>
+        <v>1179.804173926457</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1179.804173926457</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>794.0159213282127</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>787.0704205790092</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>371.9979704240057</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,37 +4345,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.034709923658</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>2535.034709923658</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y2" t="n">
-        <v>2144.895377947847</v>
+        <v>1935.36653093099</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2320.988771034578</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034578</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>3206.103854112252</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3206.103854112252</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>3206.103854112252</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>2951.419365906365</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>2951.419365906365</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X4" t="n">
-        <v>2723.429815008348</v>
+        <v>651.9203821015076</v>
       </c>
       <c r="Y4" t="n">
-        <v>2502.637235864818</v>
+        <v>651.9203821015076</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796261</v>
+        <v>2102.480899540949</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796261</v>
+        <v>1733.518382600537</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2489.080739605071</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>826.5851666348717</v>
+        <v>478.9911633238871</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1711.700249712546</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1457.015761506659</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1457.015761506659</v>
+        <v>699.7837424674173</v>
       </c>
       <c r="X7" t="n">
-        <v>1229.026210608642</v>
+        <v>699.7837424674173</v>
       </c>
       <c r="Y7" t="n">
-        <v>1008.233631465111</v>
+        <v>478.9911633238871</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2713.136153598409</v>
       </c>
       <c r="W8" t="n">
-        <v>2704.732124870452</v>
+        <v>2360.367498328294</v>
       </c>
       <c r="X8" t="n">
-        <v>2331.266366609372</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.127034633561</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4881,22 +4883,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>623.1279902937557</v>
+        <v>2174.098823536669</v>
       </c>
       <c r="C10" t="n">
-        <v>623.1279902937557</v>
+        <v>2174.098823536669</v>
       </c>
       <c r="D10" t="n">
-        <v>473.01135088142</v>
+        <v>2023.982184124333</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0982572990268</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="F10" t="n">
-        <v>178.2083098011165</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.910120335303</v>
+        <v>2402.088374434686</v>
       </c>
       <c r="X10" t="n">
-        <v>843.9205694372858</v>
+        <v>2174.098823536669</v>
       </c>
       <c r="Y10" t="n">
-        <v>623.1279902937557</v>
+        <v>2174.098823536669</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,16 +5117,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
         <v>949.9304447718133</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>448.1376146247341</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>448.1376146247341</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>280.941515339614</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1030.857960751344</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>810.0653816078141</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5269,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,22 +5360,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
         <v>484.8112968429802</v>
@@ -5458,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1650.832398530834</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1361.415228493873</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.425677595856</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2351.089047197418</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3031.88921499615</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C22" t="n">
-        <v>3031.88921499615</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>2881.772575583814</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>2733.859482001421</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4677.160414945211</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4494.305580600115</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.704115623056</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.628888967254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.944400761367</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W22" t="n">
-        <v>3441.527230724407</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X22" t="n">
-        <v>3213.53767982639</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y22" t="n">
-        <v>3213.53767982639</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5971,46 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398594</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.345997432835</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>923.4098145049279</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>107.6811364303332</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.776592304622</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.787041406604</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.994462263074</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>2257.062161108197</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>2854.440648734749</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429802</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>1182.055381897053</v>
       </c>
       <c r="Y28" t="n">
-        <v>951.7772127656159</v>
+        <v>961.2628027535234</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6482,10 +6484,10 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,22 +6545,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951537</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>2607.607030146069</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>2459.693936563676</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F31" t="n">
-        <v>2459.693936563676</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,7 +6688,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>2231.588527385791</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557012</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L33" t="n">
-        <v>3060.83890577277</v>
+        <v>2453.684166529967</v>
       </c>
       <c r="M33" t="n">
-        <v>3658.217393399322</v>
+        <v>3051.062654156519</v>
       </c>
       <c r="N33" t="n">
-        <v>4285.815356953929</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R33" t="n">
         <v>4690.833152398593</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729772</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801865</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>529.5617239213399</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.571434467152</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>3449.581883569135</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y34" t="n">
-        <v>3442.098990560012</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239597</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1230.136551607618</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1002.147000709601</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>781.3544215660705</v>
       </c>
     </row>
     <row r="38">
@@ -7166,13 +7168,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7181,40 +7183,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.345997432835</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C40" t="n">
-        <v>923.4098145049279</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>773.2931750925922</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>625.380081510199</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>478.4901340122886</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>311.2940347271686</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>169.5822035693667</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.776592304622</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.994462263074</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,7 +7444,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>3042.233551722367</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>3639.612039348919</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>4267.210002903525</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>551.354624631591</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C43" t="n">
-        <v>382.4184417036842</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D43" t="n">
         <v>382.4184417036842</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2384.680208791423</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2384.680208791423</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2165.078743814364</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1876.003517158562</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X43" t="n">
-        <v>953.7956686053609</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y43" t="n">
-        <v>733.0030894618308</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="44">
@@ -7643,19 +7645,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2072.35525930079</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2495.978408795859</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4369.811755816168</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>4080.736529160366</v>
+        <v>1828.608299724743</v>
       </c>
       <c r="V46" t="n">
-        <v>4080.736529160366</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W46" t="n">
-        <v>3791.319359123406</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X46" t="n">
-        <v>3563.329808225389</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y46" t="n">
-        <v>3342.537229081859</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>36.30694539606372</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>113.417682877128</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>148.5844758430723</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.587414922128545</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.4862366927522</v>
       </c>
       <c r="T19" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>52.83923663127254</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>117.6820817884489</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6.257951202384533</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>126.5688841976861</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>45.69767948409142</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.574752399523334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>44.73700564187114</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>211.176589273063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>111.4161395899842</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>18.6185857256803</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>6.25795120238466</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.715200669172575</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>37.12601365260417</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>146.9958004224543</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>72.44497470121456</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.0381379533</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.0381379533</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597551</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
@@ -26335,25 +26337,25 @@
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597551</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26436,7 +26438,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678118</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26445,7 +26447,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26454,7 +26456,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-890115.437702299</v>
+        <v>-890115.4377022989</v>
       </c>
       <c r="C6" t="n">
-        <v>438629.3080252936</v>
+        <v>438629.3080252938</v>
       </c>
       <c r="D6" t="n">
-        <v>438629.3080252936</v>
+        <v>438629.3080252935</v>
       </c>
       <c r="E6" t="n">
-        <v>188446.5348417114</v>
+        <v>188446.5348417113</v>
       </c>
       <c r="F6" t="n">
-        <v>513858.9966490666</v>
+        <v>513858.9966490662</v>
       </c>
       <c r="G6" t="n">
-        <v>513858.996649067</v>
+        <v>513858.9966490669</v>
       </c>
       <c r="H6" t="n">
         <v>513858.9966490665</v>
       </c>
       <c r="I6" t="n">
-        <v>513858.9966490664</v>
+        <v>513858.9966490663</v>
       </c>
       <c r="J6" t="n">
-        <v>296327.7942517891</v>
+        <v>296327.7942517889</v>
       </c>
       <c r="K6" t="n">
-        <v>513858.9966490667</v>
+        <v>513858.9966490665</v>
       </c>
       <c r="L6" t="n">
-        <v>513858.9966490666</v>
+        <v>513858.9966490663</v>
       </c>
       <c r="M6" t="n">
-        <v>428803.9687135547</v>
+        <v>428803.9687135548</v>
       </c>
       <c r="N6" t="n">
         <v>513858.9966490666</v>
@@ -26561,7 +26563,7 @@
         <v>513858.9966490666</v>
       </c>
       <c r="P6" t="n">
-        <v>513858.9966490666</v>
+        <v>513858.9966490667</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>199.0728117100758</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33.75369870834237</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>154.5110365076731</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>160.3942301795396</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>261.9597511231261</v>
+        <v>240.2596737416858</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>161.7056354834727</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>107.8869095788258</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>81.59022088655789</v>
       </c>
       <c r="W8" t="n">
-        <v>171.5160292043923</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>55.4465768237845</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>156.7026911171216</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,19 +31837,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>167.4835451665588</v>
+        <v>355.4083096598243</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -32078,25 +32080,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>290.6810969936916</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,22 +32788,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>468.9317632522997</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>689.3300812557329</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32965,7 +32967,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043726</v>
@@ -33020,19 +33022,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>162.5000833330445</v>
       </c>
       <c r="M27" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
-        <v>460.9249101897659</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>362.8934092184357</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>316.0872899694763</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>488.722343634793</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P39" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0899880277078</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>197.6412480909875</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>25.34951124454049</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>159.3393849103583</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M18" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>379.5262112417391</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>330.3773834724255</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>557.9883691723996</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>23.94570355317035</v>
       </c>
       <c r="M27" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,10 +36691,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
-        <v>322.3705304098917</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>224.3390294385616</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>173.4910455250318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>350.1679638549189</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>481.5356082478336</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.65947400496596</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2497023.162412975</v>
+        <v>2493010.552398982</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>74.322627841559</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>260.8540656789781</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.32094367426415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>152.0622691158705</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>114.4233678789972</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>17.35112070699646</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>178.6360887577652</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>150.2062474346978</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>175.2420117460554</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>246.162037583577</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W10" t="n">
-        <v>129.8203072194694</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>103.9877674501602</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.1222404669086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>28.54004930889236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>134.4555615353791</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>13.72582864853771</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722632</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>240.8253188524996</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>45.66054613217651</v>
+        <v>27.02919805175479</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462302</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>44.30292280757602</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W37" t="n">
-        <v>267.9044126109107</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.76895293959859</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784698</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>61.66004604094911</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>213.7394996880296</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1548.766690866869</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.804173926457</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1179.804173926457</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>794.0159213282127</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>787.0704205790092</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>371.9979704240057</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906802</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.36653093099</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.3436713194226</v>
+        <v>2322.222117337204</v>
       </c>
       <c r="C4" t="n">
-        <v>626.3436713194226</v>
+        <v>2153.285934409297</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>2003.169294996962</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>1855.256201414568</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>2657.468833799636</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995249</v>
+        <v>2657.468833799636</v>
       </c>
       <c r="X4" t="n">
-        <v>651.9203821015076</v>
+        <v>2657.468833799636</v>
       </c>
       <c r="Y4" t="n">
-        <v>651.9203821015076</v>
+        <v>2503.870582167444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2102.480899540949</v>
+        <v>2065.110222835254</v>
       </c>
       <c r="C5" t="n">
-        <v>1733.518382600537</v>
+        <v>1696.147705894842</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.882007288092</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>952.0937546898474</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>541.1078499002399</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>126.0353997452364</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y5" t="n">
-        <v>2489.080739605071</v>
+        <v>2451.710062899376</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,40 +4652,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.9911633238871</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959802</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959802</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="W7" t="n">
-        <v>699.7837424674173</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="X7" t="n">
-        <v>699.7837424674173</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.9911633238871</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>2065.110222835254</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1696.147705894842</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.882007288092</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>952.0937546898474</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>541.1078499002399</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2713.136153598409</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>2360.367498328294</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.901740067214</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>2451.710062899376</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2174.098823536669</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>2174.098823536669</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>2023.982184124333</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>1876.06909054194</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>1876.06909054194</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>2822.322864763052</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>2533.219997888695</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>2533.219997888695</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>2402.088374434686</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>2174.098823536669</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>2174.098823536669</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>915.1035305473698</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>746.1673476194629</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>596.0507082071272</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>448.1376146247341</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>448.1376146247341</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>280.941515339614</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5296,16 +5296,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2351.089047197418</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2131.487582220359</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,19 +5834,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.7243904253734</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253734</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
         <v>484.8112968429803</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.572155334121</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1263.15498529716</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.165434399143</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>814.3728552556131</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101821</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978464</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>274.8772357154533</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>274.8772357154533</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>107.6811364303332</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6223,28 +6223,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2233.355914590558</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>2257.062161108197</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>2854.440648734749</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.055381897053</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>961.2628027535234</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6600,19 +6600,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578666</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6688,10 +6688,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,19 +6700,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2453.684166529967</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>996.5276398439756</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>827.5914569160688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>677.474817503733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>529.5617239213399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1398.968683817745</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1178.176104674215</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6955,34 +6955,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.3544215660705</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1230.136551607618</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1002.147000709601</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.3544215660705</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7268,10 +7268,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>493.2161050975141</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.4712640439268</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>532.5350811160199</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>382.4184417036842</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2384.680208791423</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2384.680208791423</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2165.078743814364</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1876.003517158562</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1621.319028952675</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1331.901858915714</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1103.912308017697</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.1197288741665</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.608299724743</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465739</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>36.30694539606372</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.587414922128545</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>152.4862366927522</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>117.6820817884489</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>126.5688841976861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>45.69767948409142</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>119.8635921600923</v>
+        <v>138.4949402405141</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>101.1181252153552</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W37" t="n">
-        <v>18.6185857256803</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.715200669172575</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>72.44497470121456</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.038137953</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.0381379533</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448192</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.371644819</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597544</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="P2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>3.539624622135307e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813242</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813242</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26441,22 +26441,22 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678114</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678112</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26524,46 +26524,46 @@
         <v>-890115.4377022989</v>
       </c>
       <c r="C6" t="n">
-        <v>438629.3080252938</v>
+        <v>438629.308025293</v>
       </c>
       <c r="D6" t="n">
-        <v>438629.3080252935</v>
+        <v>438629.3080252932</v>
       </c>
       <c r="E6" t="n">
-        <v>188446.5348417113</v>
+        <v>188099.1555873551</v>
       </c>
       <c r="F6" t="n">
-        <v>513858.9966490662</v>
+        <v>513511.6173947095</v>
       </c>
       <c r="G6" t="n">
-        <v>513858.9966490669</v>
+        <v>513511.6173947096</v>
       </c>
       <c r="H6" t="n">
-        <v>513858.9966490665</v>
+        <v>513511.6173947093</v>
       </c>
       <c r="I6" t="n">
-        <v>513858.9966490663</v>
+        <v>513511.6173947094</v>
       </c>
       <c r="J6" t="n">
-        <v>296327.7942517889</v>
+        <v>295980.4149974321</v>
       </c>
       <c r="K6" t="n">
-        <v>513858.9966490665</v>
+        <v>513511.6173947091</v>
       </c>
       <c r="L6" t="n">
-        <v>513858.9966490663</v>
+        <v>513511.6173947092</v>
       </c>
       <c r="M6" t="n">
-        <v>428803.9687135548</v>
+        <v>428456.5894591979</v>
       </c>
       <c r="N6" t="n">
-        <v>513858.9966490666</v>
+        <v>513511.6173947094</v>
       </c>
       <c r="O6" t="n">
-        <v>513858.9966490666</v>
+        <v>513511.6173947094</v>
       </c>
       <c r="P6" t="n">
-        <v>513858.9966490667</v>
+        <v>513511.6173947096</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>290.9502639294486</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>33.75369870834237</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.5110365076731</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>66.52238423622433</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>240.2596737416858</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>277.256643680324</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>107.8869095788258</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>75.50340795433939</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>235.679713907398</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>81.59022088655789</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W10" t="n">
-        <v>156.7026911171216</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28256,7 +28256,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-5.423109903035248e-14</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-1.408918502446846e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-5.423109903035248e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29687,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-6.33419236674517e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>290.6810969936916</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>246.9596973201446</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32709,34 +32709,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
-        <v>162.5000833330445</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33201,7 +33201,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>362.8934092184357</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>159.3393849103583</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>108.4053175402704</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
-        <v>23.94570355317035</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>224.3390294385616</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2493010.552398982</v>
+        <v>2494771.082701768</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>74.322627841559</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>36.80199454068629</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>80.00124118081781</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>152.0622691158705</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>238.7813195717444</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>17.35112070699646</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>150.2062474346978</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>175.2420117460554</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>14.95687341106452</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>75.53083007380867</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347177</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.23631477519695</v>
+        <v>3.453391420152012</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712597</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>147.6895341487364</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.55695577161242</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722632</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>260.4394343112834</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805175479</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462302</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>156.0046924576058</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1584054594695</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2051.278283189673</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4330,16 +4330,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189673</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2322.222117337204</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>2153.285934409297</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>2003.169294996962</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>1855.256201414568</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>1708.366253916658</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435997</v>
+        <v>1846.485213562414</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005523</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="U4" t="n">
-        <v>2912.153322005523</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="V4" t="n">
-        <v>2657.468833799636</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W4" t="n">
-        <v>2657.468833799636</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X4" t="n">
-        <v>2657.468833799636</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>2503.870582167444</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835254</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.147705894842</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.882007288092</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0937546898474</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>541.1078499002399</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>126.0353997452364</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875187</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899376</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,40 +4652,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672848</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1645.778206672848</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835254</v>
+        <v>1616.654488422266</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.147705894842</v>
+        <v>1247.691971481854</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.882007288092</v>
+        <v>889.4262728751039</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898474</v>
+        <v>503.6380202768597</v>
       </c>
       <c r="F8" t="n">
-        <v>541.1078499002399</v>
+        <v>92.6521154872521</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>81.62006937265265</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136267</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136267</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875187</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899376</v>
+        <v>2003.254328486388</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>583.826112045951</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>435.9130184635579</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>289.0230709656475</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400352</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639639</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.955532171245</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,61 +5494,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5977,37 +5977,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>135.7933860496006</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578666</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2039.482048055643</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6682,67 +6682,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6837,58 +6837,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7089,46 +7089,46 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
         <v>1491.508541327549</v>
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1648.869221910439</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1420.879671012422</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.5956654067404</v>
+        <v>176.3785887617853</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465739</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038485</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9259388694759139</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>39.7088805469531</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>25.74504007796071</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405141</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>61.40075786968242</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>79.42624789262524</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.0381379533</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.0381379533</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796727.038137953</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.0381379533</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448194</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448195</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448192</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.371644819</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597552</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597544</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597547</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26432,25 +26432,25 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678115</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678114</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
+        <v>10557.08828678117</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10557.08828678127</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-890115.4377022989</v>
+        <v>-890115.4377022987</v>
       </c>
       <c r="C6" t="n">
-        <v>438629.308025293</v>
+        <v>438629.3080252939</v>
       </c>
       <c r="D6" t="n">
-        <v>438629.3080252932</v>
+        <v>438629.3080252938</v>
       </c>
       <c r="E6" t="n">
-        <v>188099.1555873551</v>
+        <v>188411.7969162755</v>
       </c>
       <c r="F6" t="n">
-        <v>513511.6173947095</v>
+        <v>513824.2587236308</v>
       </c>
       <c r="G6" t="n">
-        <v>513511.6173947096</v>
+        <v>513824.2587236308</v>
       </c>
       <c r="H6" t="n">
-        <v>513511.6173947093</v>
+        <v>513824.2587236309</v>
       </c>
       <c r="I6" t="n">
-        <v>513511.6173947094</v>
+        <v>513824.2587236308</v>
       </c>
       <c r="J6" t="n">
-        <v>295980.4149974321</v>
+        <v>296293.0563263534</v>
       </c>
       <c r="K6" t="n">
-        <v>513511.6173947091</v>
+        <v>513824.2587236307</v>
       </c>
       <c r="L6" t="n">
-        <v>513511.6173947092</v>
+        <v>513824.2587236308</v>
       </c>
       <c r="M6" t="n">
-        <v>428456.5894591979</v>
+        <v>428769.2307881189</v>
       </c>
       <c r="N6" t="n">
-        <v>513511.6173947094</v>
+        <v>513824.2587236308</v>
       </c>
       <c r="O6" t="n">
-        <v>513511.6173947094</v>
+        <v>513824.2587236307</v>
       </c>
       <c r="P6" t="n">
-        <v>513511.6173947096</v>
+        <v>513824.2587236308</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,34 +26792,34 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,64 +27381,64 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>290.9502639294486</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>109.7677841506241</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.52238423622433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>115.9017220489385</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>277.256643680324</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>75.50340795433939</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>235.679713907398</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>279.6508909762559</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>90.49497818521955</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911034</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28256,7 +28256,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-5.423109903035248e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29283,16 +29283,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.408918502446846e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
-        <v>-5.423109903035248e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29687,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-6.33419236674517e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870023</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32709,34 +32709,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>593.5422977113961</v>
@@ -34228,7 +34228,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>351.9532034556927</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
